--- a/biology/Botanique/Swertia/Swertia.xlsx
+++ b/biology/Botanique/Swertia/Swertia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Swertia est un genre de plantes de la famille des Gentianaceae comptant environ 150 espèces, principalement en Asie et Afrique. Certaines espèces portent des fleurs violacées ou bleues[1],[2].
-Ce genre est représenté en Europe par la seule espèce Swertia perennis L., la swertie vivace, protégée en France[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swertia est un genre de plantes de la famille des Gentianaceae comptant environ 150 espèces, principalement en Asie et Afrique. Certaines espèces portent des fleurs violacées ou bleues,.
+Ce genre est représenté en Europe par la seule espèce Swertia perennis L., la swertie vivace, protégée en France.
 Des espèces généralement placées dans le genre Frasera sont parfois considérées comme appartenant au genre Swartia.
 </t>
         </is>
@@ -513,16 +525,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 août 2012)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 août 2012) :
 Swertia carolinensis
 Swertia gypsicoloa
 Swertia perennis
-Selon ITIS      (17 août 2012)[5] :
+Selon ITIS      (17 août 2012) :
 Swertia perennis L.
 Swertia usambarensis Engl.
-Selon NCBI  (17 août 2012)[6] :
+Selon NCBI  (17 août 2012) :
 Swertia abyssinica
 Swertia adolfi-friderici
 Swertia angustifolia
@@ -608,10 +622,12 @@
           <t>Constituants chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les swerties contiennent généralement des composants de type sawertiamarine, mangiférine (un xanthonoïde aussi présent dans les mangues) et amarogénitine[7] 1,5, 8-trihydroxy-3-méthoxyxanthone, 1-hydroxyl-2, 3, 5, 7-tétraméthoxyxanthone, 1-hydroxyl-3, 5, 8-triméthoxyxanthone, 1-hydroxyl-2, 3, 4, 6-tetraméthoxyxanthone, 1-hydroxyl-2, 3, 4, 7-tetraméthoxyxanthone, 1,8-dihydroxy-3, 5-diméthoxyxanthone, 1, 7-dihydroxy-3, 8-diméthoxyxanthone, 1, 3, 5, 8-tétrahydroxyxanthone, balanophonin, oleanolic acid, acide maslinique, et acide sumaresinolique[8].
-Les Swerilactones de Swertia mileensis ont montré des propriétés anti-hépatite B in vitro[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les swerties contiennent généralement des composants de type sawertiamarine, mangiférine (un xanthonoïde aussi présent dans les mangues) et amarogénitine 1,5, 8-trihydroxy-3-méthoxyxanthone, 1-hydroxyl-2, 3, 5, 7-tétraméthoxyxanthone, 1-hydroxyl-3, 5, 8-triméthoxyxanthone, 1-hydroxyl-2, 3, 4, 6-tetraméthoxyxanthone, 1-hydroxyl-2, 3, 4, 7-tetraméthoxyxanthone, 1,8-dihydroxy-3, 5-diméthoxyxanthone, 1, 7-dihydroxy-3, 8-diméthoxyxanthone, 1, 3, 5, 8-tétrahydroxyxanthone, balanophonin, oleanolic acid, acide maslinique, et acide sumaresinolique.
+Les Swerilactones de Swertia mileensis ont montré des propriétés anti-hépatite B in vitro.
 </t>
         </is>
       </c>
@@ -640,9 +656,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les composants des swerties sont utilisés pour traiter des désordres gastriques, et ces constituants actifs, particulièrement la mangiférine, se sont avérés avoir des propriétés hépatoprotectives, hypoglycémiques, anti-inflammatoires, anti-oxydantes, anti-tuberculeuses et antifongiques, ainsi que de nombreuses autres propriétés pharmacologiques[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les composants des swerties sont utilisés pour traiter des désordres gastriques, et ces constituants actifs, particulièrement la mangiférine, se sont avérés avoir des propriétés hépatoprotectives, hypoglycémiques, anti-inflammatoires, anti-oxydantes, anti-tuberculeuses et antifongiques, ainsi que de nombreuses autres propriétés pharmacologiques.
 </t>
         </is>
       </c>
